--- a/biology/Zoologie/Drepanoides_anomalus/Drepanoides_anomalus.xlsx
+++ b/biology/Zoologie/Drepanoides_anomalus/Drepanoides_anomalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drepanoides anomalus, unique représentant du genre Drepanoides, est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drepanoides anomalus, unique représentant du genre Drepanoides, est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent se caractérise par une coloration rouge vif, une tête noire, et un collier blanc qui peut s'estomper chez les adultes. Ce type de coloration se retrouve chez d'autres espèces présentes dans sont aire de distribution, comme les jeune Clelia clelia ou encore les espèces du genre Pseudoboa. Drepanoides anomalus peut néanmoins se différencier des autres espèces par la présence de taches noires sur ses écailles, par l'absence d'écaille loréale ainsi que par la présence d'écailles sous-caudales divisés (ce qui n'est pas le cas chez les Pseudoboa)[2]. Il s'agit d'une espèce de petite taille, mesurant environ 50 cm à l'âge adulte[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent se caractérise par une coloration rouge vif, une tête noire, et un collier blanc qui peut s'estomper chez les adultes. Ce type de coloration se retrouve chez d'autres espèces présentes dans sont aire de distribution, comme les jeune Clelia clelia ou encore les espèces du genre Pseudoboa. Drepanoides anomalus peut néanmoins se différencier des autres espèces par la présence de taches noires sur ses écailles, par l'absence d'écaille loréale ainsi que par la présence d'écailles sous-caudales divisés (ce qui n'est pas le cas chez les Pseudoboa). Il s'agit d'une espèce de petite taille, mesurant environ 50 cm à l'âge adulte. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne, en Colombie, en Équateur, au Pérou, en Bolivie, au Brésil et en Guyane[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne, en Colombie, en Équateur, au Pérou, en Bolivie, au Brésil et en Guyane
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent habite les forêts tropicales humides. Il est nocturne et se nourrit probablement de reptiles ainsi que de leurs oeufs[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent habite les forêts tropicales humides. Il est nocturne et se nourrit probablement de reptiles ainsi que de leurs oeufs.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dunn, 1928 : A tentative key and arrangement of the American genera of Colubridae. Bulletin of the Antivenin Institute of. America, vol. 2, p. 18‑24.
 Jan, 1863 : Elenco Sistematico degli Ofidi descriti e disegnati per l'Iconografia Generale. Milano, A. Lombardi, p. 1-143 (texte intégral).</t>
